--- a/dataDictionary/Exomiser.xlsx
+++ b/dataDictionary/Exomiser.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\dataDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB19A1-1896-48D9-A04A-4227ED35308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
   <si>
     <t>Table</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Participant Identifier (supplied by Genomics England)</t>
   </si>
   <si>
-    <t>family_id</t>
-  </si>
-  <si>
     <t>gmcFamilyId, xs:string</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>A unique identifier for the interpretation request. The Interpretation Request contains all of the information needed to display and clinically annotate a case. If new data are added (such as an additional family member or gene panel), the case will be re-interpreted and the interpretation request id will be updated.</t>
   </si>
   <si>
-    <t>sample_id</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -105,9 +100,6 @@
   </si>
   <si>
     <t>The participant's phenotypic sex classification at birth</t>
-  </si>
-  <si>
-    <t>assembly</t>
   </si>
   <si>
     <t>Genome assembly used for alignment</t>
@@ -291,22 +283,25 @@
     <t>Father affected with same condition as proband, chosen from supplied enumeration</t>
   </si>
   <si>
-    <t>full_brothers_affected</t>
-  </si>
-  <si>
-    <t>Number of full brothers with same condition</t>
-  </si>
-  <si>
-    <t>full_sisters_affected</t>
-  </si>
-  <si>
-    <t>Number of full sisters with same condition</t>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>full_siblings_affected</t>
+  </si>
+  <si>
+    <t>Number of full siblings with same condition</t>
+  </si>
+  <si>
+    <t>genome_build</t>
+  </si>
+  <si>
+    <t>platekey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -545,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -746,20 +741,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -787,506 +782,492 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="405" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="217" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:4" ht="155" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="248" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="5" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="124" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="5" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="372" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="195.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="5" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="360.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="5" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="330.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="5" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="356.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="4" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="217" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="360.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:4" ht="217" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
